--- a/config/excel/blade.xlsx
+++ b/config/excel/blade.xlsx
@@ -114,16 +114,16 @@
     <t>服务器导出字段类型</t>
   </si>
   <si>
-    <t>float</t>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>float32</t>
   </si>
   <si>
     <t>[]string</t>
   </si>
   <si>
-    <t>[]int</t>
-  </si>
-  <si>
-    <t>default</t>
+    <t>[]int32</t>
   </si>
   <si>
     <t>默认利刃名</t>
@@ -638,9 +638,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -720,7 +720,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -748,10 +748,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1007,9 +1007,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1297,7 +1297,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1325,10 +1325,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1749,7 +1749,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="s" s="11">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="11">
         <v>30</v>
@@ -1758,39 +1758,37 @@
         <v>30</v>
       </c>
       <c r="F6" t="s" s="11">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s" s="11">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s" s="11">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s" s="11">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s" s="11">
         <v>32</v>
       </c>
-      <c r="J6" t="s" s="11">
-        <v>29</v>
-      </c>
       <c r="K6" t="s" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s" s="11">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N6" t="s" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="10"/>
-      <c r="C7" t="s" s="11">
-        <v>35</v>
-      </c>
+      <c r="C7" s="11"/>
       <c r="D7" t="s" s="11">
         <v>36</v>
       </c>

--- a/config/excel/blade.xlsx
+++ b/config/excel/blade.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -124,12 +124,6 @@
   </si>
   <si>
     <t>[]int32</t>
-  </si>
-  <si>
-    <t>默认利刃名</t>
-  </si>
-  <si>
-    <t>默认输出类型</t>
   </si>
   <si>
     <t>近战1</t>
@@ -361,7 +355,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -408,9 +402,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1579,7 +1570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1785,236 +1776,204 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" ht="14" customHeight="1">
+    <row r="7" ht="16" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" t="s" s="11">
+      <c r="B7" s="4"/>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="17">
         <v>36</v>
       </c>
-      <c r="E7" t="s" s="11">
+      <c r="E7" t="s" s="18">
         <v>37</v>
       </c>
-      <c r="F7" s="16">
-        <v>0</v>
+      <c r="F7" s="19">
+        <v>1</v>
       </c>
       <c r="G7" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="16">
         <v>0</v>
       </c>
       <c r="I7" s="16">
+        <v>5</v>
+      </c>
+      <c r="J7" s="16">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s" s="20">
+        <v>39</v>
+      </c>
+      <c r="M7" s="21">
         <v>0</v>
       </c>
-      <c r="J7" s="16">
-        <v>0</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="16">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15"/>
+      <c r="N7" t="s" s="17">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="17">
+      <c r="C8" s="22">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="23">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s" s="24">
+        <v>37</v>
+      </c>
+      <c r="F8" s="25">
         <v>1</v>
       </c>
-      <c r="D8" t="s" s="18">
+      <c r="G8" s="22">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22">
+        <v>5</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s" s="26">
         <v>38</v>
       </c>
-      <c r="E8" t="s" s="19">
+      <c r="L8" t="s" s="26">
         <v>39</v>
       </c>
-      <c r="F8" s="20">
-        <v>1</v>
-      </c>
-      <c r="G8" s="17">
-        <v>1</v>
-      </c>
-      <c r="H8" s="17">
+      <c r="M8" s="27">
         <v>0</v>
       </c>
-      <c r="I8" s="17">
-        <v>5</v>
-      </c>
-      <c r="J8" s="17">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s" s="21">
-        <v>40</v>
-      </c>
-      <c r="L8" t="s" s="21">
-        <v>41</v>
-      </c>
-      <c r="M8" s="22">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s" s="18">
+      <c r="N8" t="s" s="23">
         <v>42</v>
       </c>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" ht="14" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="23">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s" s="24">
+      <c r="C9" s="28">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s" s="29">
         <v>43</v>
       </c>
-      <c r="E9" t="s" s="25">
-        <v>39</v>
-      </c>
-      <c r="F9" s="26">
+      <c r="E9" t="s" s="23">
+        <v>44</v>
+      </c>
+      <c r="F9" s="28">
         <v>1</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="28">
         <v>1</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="28">
         <v>0</v>
       </c>
-      <c r="I9" s="23">
-        <v>5</v>
-      </c>
-      <c r="J9" s="23">
+      <c r="I9" s="28">
+        <v>10</v>
+      </c>
+      <c r="J9" s="28">
         <v>0</v>
       </c>
-      <c r="K9" t="s" s="27">
-        <v>40</v>
-      </c>
-      <c r="L9" t="s" s="27">
-        <v>41</v>
-      </c>
-      <c r="M9" s="28">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s" s="24">
-        <v>44</v>
+      <c r="K9" t="s" s="30">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s" s="30">
+        <v>45</v>
+      </c>
+      <c r="M9" s="31">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s" s="29">
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="29">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s" s="30">
+      <c r="C10" s="28">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s" s="29">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s" s="23">
+        <v>44</v>
+      </c>
+      <c r="F10" s="28">
+        <v>1</v>
+      </c>
+      <c r="G10" s="28">
+        <v>1</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0</v>
+      </c>
+      <c r="I10" s="28">
+        <v>10</v>
+      </c>
+      <c r="J10" s="28">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s" s="30">
+        <v>38</v>
+      </c>
+      <c r="L10" t="s" s="30">
         <v>45</v>
       </c>
-      <c r="E10" t="s" s="24">
-        <v>46</v>
-      </c>
-      <c r="F10" s="29">
+      <c r="M10" s="31">
         <v>1</v>
       </c>
-      <c r="G10" s="29">
-        <v>1</v>
-      </c>
-      <c r="H10" s="29">
-        <v>0</v>
-      </c>
-      <c r="I10" s="29">
-        <v>10</v>
-      </c>
-      <c r="J10" s="29">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s" s="31">
-        <v>40</v>
-      </c>
-      <c r="L10" t="s" s="31">
+      <c r="N10" t="s" s="29">
         <v>47</v>
       </c>
-      <c r="M10" s="32">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s" s="30">
-        <v>48</v>
-      </c>
     </row>
-    <row r="11" ht="14" customHeight="1">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="29">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s" s="30">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s" s="24">
-        <v>46</v>
-      </c>
-      <c r="F11" s="29">
+      <c r="C11" s="28">
+        <v>10000</v>
+      </c>
+      <c r="D11" t="s" s="32">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s" s="23">
+        <v>37</v>
+      </c>
+      <c r="F11" s="33">
         <v>1</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="33">
         <v>1</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="33">
         <v>0</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="33">
         <v>10</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="28">
         <v>0</v>
       </c>
-      <c r="K11" t="s" s="31">
-        <v>40</v>
-      </c>
-      <c r="L11" t="s" s="31">
-        <v>47</v>
-      </c>
-      <c r="M11" s="32">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s" s="30">
+      <c r="K11" t="s" s="30">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s" s="26">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="29">
-        <v>10000</v>
-      </c>
-      <c r="D12" t="s" s="33">
+      <c r="M11" s="27">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s" s="29">
         <v>50</v>
-      </c>
-      <c r="E12" t="s" s="24">
-        <v>39</v>
-      </c>
-      <c r="F12" s="34">
-        <v>1</v>
-      </c>
-      <c r="G12" s="34">
-        <v>1</v>
-      </c>
-      <c r="H12" s="34">
-        <v>0</v>
-      </c>
-      <c r="I12" s="34">
-        <v>10</v>
-      </c>
-      <c r="J12" s="29">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s" s="31">
-        <v>40</v>
-      </c>
-      <c r="L12" t="s" s="27">
-        <v>51</v>
-      </c>
-      <c r="M12" s="28">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s" s="30">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
